--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1185.216521424382</v>
+        <v>1094.978641256019</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38703688534934</v>
+        <v>17.08152716049214</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.571887095804371</v>
+        <v>15.31849720258315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>659.8699999999993</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>497.42</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,9 +631,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -791,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.441553087125037</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.764296350851815</v>
+        <v>17.5321137415211</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.22809649842574</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>39.15133323620116</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1140,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1154,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,13 +1168,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1127,15 +1182,29 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>151.1799999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>155.0849999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>154.5399999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>151.8099999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>154.8199999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>115.9200000000001</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1483,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>127.7600000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>124.35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>126.5100000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.4300000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.695</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.885</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.735</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.685</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.1799999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>155.0849999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>154.5399999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>151.8099999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>154.8199999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.695</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.885</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>111.735</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>114.685</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.17999999999992</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>55.08499999999992</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>54.53999999999994</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>51.80999999999995</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1772,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>54.81999999999991</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.695</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.885</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.735</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1827,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.685</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1973,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2083,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2168,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2176,10 +2245,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2187,10 +2256,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2198,10 +2267,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2209,10 +2278,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2223,53 +2292,9 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
